--- a/fadd/МПОР/mat2/results/lab2_results.xlsx
+++ b/fadd/МПОР/mat2/results/lab2_results.xlsx
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.09808349609375e-05</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -560,7 +560,7 @@
         <v>0.1194092258014622</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001008987426757812</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.312660217285156e-05</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -617,16 +617,16 @@
         <v>51</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0144414515739</v>
+        <v>1.014441451573845</v>
       </c>
       <c r="F5" t="n">
-        <v>1.029124155839575</v>
+        <v>1.029124155839464</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002086624340422073</v>
+        <v>0.0002086624340406331</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00115203857421875</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.503395080566406e-05</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>0.002591427501248812</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001276254653930664</v>
+        <v>0.002004146575927734</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3.194808959960938e-05</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>0.04528880717349041</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001812934875488281</v>
+        <v>0.002034902572631836</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1961669921875e-05</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>1.371402113515343e-09</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0023651123046875</v>
+        <v>0.004004001617431641</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>-3.824321042733788</v>
       </c>
       <c r="H12" t="n">
-        <v>2.408027648925781e-05</v>
+        <v>0.00096893310546875</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>-3.827063611615392</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000308990478515625</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>-3.824362219205675</v>
       </c>
       <c r="H14" t="n">
-        <v>3.099441528320312e-05</v>
+        <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>-3.827063689057686</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0003640651702880859</v>
+        <v>0.001002073287963867</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>-3.824362219205675</v>
       </c>
       <c r="H16" t="n">
-        <v>2.980232238769531e-05</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>-3.827063689169644</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0004842281341552734</v>
+        <v>0.00099945068359375</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>-3.827063684393472</v>
       </c>
       <c r="H18" t="n">
-        <v>6.604194641113281e-05</v>
+        <v>0.0009982585906982422</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>-3.827063689169535</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007376670837402344</v>
+        <v>0.001029729843139648</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>-3.827063684393472</v>
       </c>
       <c r="H20" t="n">
-        <v>6.890296936035156e-05</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>-3.827063689169707</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008950233459472656</v>
+        <v>0.0009713172912597656</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -5100,7 +5100,7 @@
         <v>1.083211595073355</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001658862215475724</v>
+        <v>0.001658862215475717</v>
       </c>
       <c r="D25" t="n">
         <v>23</v>
@@ -5108,13 +5108,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.015387713377705</v>
+        <v>1.015387713377548</v>
       </c>
       <c r="B26" t="n">
-        <v>1.029398951596385</v>
+        <v>1.029398951596458</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000497041499732806</v>
+        <v>0.0004970414996016817</v>
       </c>
       <c r="D26" t="n">
         <v>24</v>
@@ -5122,13 +5122,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.014731352278589</v>
+        <v>1.014731352278432</v>
       </c>
       <c r="B27" t="n">
-        <v>1.029707659131563</v>
+        <v>1.029707659131633</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002170908145670218</v>
+        <v>0.0002170908145645609</v>
       </c>
       <c r="D27" t="n">
         <v>25</v>
@@ -5136,13 +5136,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.014699766623129</v>
+        <v>1.014699766623034</v>
       </c>
       <c r="B28" t="n">
-        <v>1.029697918549319</v>
+        <v>1.029697918549188</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002167605033990855</v>
+        <v>0.0002167605033973047</v>
       </c>
       <c r="D28" t="n">
         <v>26</v>
@@ -5150,13 +5150,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.014707581393625</v>
+        <v>1.014707581393571</v>
       </c>
       <c r="B29" t="n">
-        <v>1.029665802168234</v>
+        <v>1.029665802168113</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002164307808334264</v>
+        <v>0.000216430780831755</v>
       </c>
       <c r="D29" t="n">
         <v>27</v>
@@ -5164,13 +5164,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.014677365242984</v>
+        <v>1.014677365242927</v>
       </c>
       <c r="B30" t="n">
-        <v>1.029652403779811</v>
+        <v>1.029652403779697</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002161015278296562</v>
+        <v>0.0002161015278280037</v>
       </c>
       <c r="D30" t="n">
         <v>28</v>
@@ -5178,13 +5178,13 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.014685225710935</v>
+        <v>1.01468522571088</v>
       </c>
       <c r="B31" t="n">
-        <v>1.029620298552582</v>
+        <v>1.029620298552467</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00021577275852019</v>
+        <v>0.0002157727585185455</v>
       </c>
       <c r="D31" t="n">
         <v>29</v>
@@ -5192,13 +5192,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.014654986702817</v>
+        <v>1.01465498670276</v>
       </c>
       <c r="B32" t="n">
-        <v>1.02960695183164</v>
+        <v>1.029606951831527</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0002154444802292047</v>
+        <v>0.0002154444802275691</v>
       </c>
       <c r="D32" t="n">
         <v>30</v>
@@ -5206,13 +5206,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.014662902949064</v>
+        <v>1.014662902949009</v>
       </c>
       <c r="B33" t="n">
-        <v>1.029574860312243</v>
+        <v>1.02957486031213</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002151166882822521</v>
+        <v>0.0002151166882806181</v>
       </c>
       <c r="D33" t="n">
         <v>31</v>
@@ -5220,13 +5220,13 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.014632640487216</v>
+        <v>1.01463264048716</v>
       </c>
       <c r="B34" t="n">
-        <v>1.029561566856154</v>
+        <v>1.029561566856041</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002147893866878272</v>
+        <v>0.0002147893866861998</v>
       </c>
       <c r="D34" t="n">
         <v>32</v>
@@ -5234,13 +5234,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.014640612622734</v>
+        <v>1.014640612622679</v>
       </c>
       <c r="B35" t="n">
-        <v>1.029529489175016</v>
+        <v>1.029529489174904</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0002144625701307397</v>
+        <v>0.0002144625701291128</v>
       </c>
       <c r="D35" t="n">
         <v>33</v>
@@ -5248,13 +5248,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.014610326857334</v>
+        <v>1.014610326857279</v>
       </c>
       <c r="B36" t="n">
-        <v>1.029516248896091</v>
+        <v>1.029516248895978</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0002141362425621128</v>
+        <v>0.0002141362425604907</v>
       </c>
       <c r="D36" t="n">
         <v>34</v>
@@ -5262,13 +5262,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.014618354674992</v>
+        <v>1.014618354674937</v>
       </c>
       <c r="B37" t="n">
-        <v>1.029484185104744</v>
+        <v>1.029484185104631</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0002138103986048095</v>
+        <v>0.00021381039860319</v>
       </c>
       <c r="D37" t="n">
         <v>35</v>
@@ -5276,13 +5276,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.014588045778203</v>
+        <v>1.014588045778148</v>
       </c>
       <c r="B38" t="n">
-        <v>1.029470997862904</v>
+        <v>1.029470997862792</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0002134850422544511</v>
+        <v>0.0002134850422528344</v>
       </c>
       <c r="D38" t="n">
         <v>36</v>
@@ -5290,13 +5290,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.014596129062546</v>
+        <v>1.014596129062491</v>
       </c>
       <c r="B39" t="n">
-        <v>1.029438948009767</v>
+        <v>1.029438948009654</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0002131601680896985</v>
+        <v>0.0002131601680880845</v>
       </c>
       <c r="D39" t="n">
         <v>37</v>
@@ -5304,13 +5304,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.014565797205751</v>
+        <v>1.014565797205696</v>
       </c>
       <c r="B40" t="n">
-        <v>1.029425813664131</v>
+        <v>1.029425813664018</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0002128357801537218</v>
+        <v>0.0002128357801521112</v>
       </c>
       <c r="D40" t="n">
         <v>38</v>
@@ -5318,13 +5318,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.014573935742574</v>
+        <v>1.014573935742519</v>
       </c>
       <c r="B41" t="n">
-        <v>1.029393777796883</v>
+        <v>1.029393777796771</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0002125118729815044</v>
+        <v>0.0002125118729798963</v>
       </c>
       <c r="D41" t="n">
         <v>39</v>
@@ -5332,13 +5332,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.014543581095706</v>
+        <v>1.014543581095651</v>
       </c>
       <c r="B42" t="n">
-        <v>1.029380696207323</v>
+        <v>1.029380696207211</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0002121884506638393</v>
+        <v>0.0002121884506622303</v>
       </c>
       <c r="D42" t="n">
         <v>40</v>
@@ -5346,13 +5346,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.014551774672318</v>
+        <v>1.014551774672263</v>
       </c>
       <c r="B43" t="n">
-        <v>1.029348674372987</v>
+        <v>1.029348674372875</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0002118655076920433</v>
+        <v>0.0002118655076904342</v>
       </c>
       <c r="D43" t="n">
         <v>41</v>
@@ -5360,13 +5360,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.014521397403858</v>
+        <v>1.014521397403803</v>
       </c>
       <c r="B44" t="n">
-        <v>1.029335645400165</v>
+        <v>1.029335645400053</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0002115430482045202</v>
+        <v>0.0002115430482029144</v>
       </c>
       <c r="D44" t="n">
         <v>42</v>
@@ -5374,13 +5374,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.014529645809073</v>
+        <v>1.014529645809018</v>
       </c>
       <c r="B45" t="n">
-        <v>1.029303637645116</v>
+        <v>1.029303637645004</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0002112210666489248</v>
+        <v>0.0002112210666473217</v>
       </c>
       <c r="D45" t="n">
         <v>43</v>
@@ -5388,13 +5388,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.014499246086068</v>
+        <v>1.014499246086013</v>
       </c>
       <c r="B46" t="n">
-        <v>1.029290661150476</v>
+        <v>1.029290661150364</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0002108995672112566</v>
+        <v>0.0002108995672096561</v>
       </c>
       <c r="D46" t="n">
         <v>44</v>
@@ -5402,13 +5402,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.014507549110185</v>
+        <v>1.01450754911013</v>
       </c>
       <c r="B47" t="n">
-        <v>1.029258667520448</v>
+        <v>1.029258667520336</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0002105785442955081</v>
+        <v>0.0002105785442939089</v>
       </c>
       <c r="D47" t="n">
         <v>45</v>
@@ -5416,13 +5416,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.014477127098268</v>
+        <v>1.014477127098213</v>
       </c>
       <c r="B48" t="n">
-        <v>1.029245743366207</v>
+        <v>1.029245743366095</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0002102580021352647</v>
+        <v>0.0002102580021336703</v>
       </c>
       <c r="D48" t="n">
         <v>46</v>
@@ -5430,13 +5430,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.014485484533052</v>
+        <v>1.014485484532997</v>
       </c>
       <c r="B49" t="n">
-        <v>1.029213763906303</v>
+        <v>1.029213763906192</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0002099379350908505</v>
+        <v>0.0002099379350892587</v>
       </c>
       <c r="D49" t="n">
         <v>47</v>
@@ -5444,13 +5444,13 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.014455040396459</v>
+        <v>1.014455040396404</v>
       </c>
       <c r="B50" t="n">
-        <v>1.029200891955442</v>
+        <v>1.02920089195533</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0002096183474434274</v>
+        <v>0.0002096183474418382</v>
       </c>
       <c r="D50" t="n">
         <v>48</v>
@@ -5458,13 +5458,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.014463452035123</v>
+        <v>1.014463452035069</v>
       </c>
       <c r="B51" t="n">
-        <v>1.029168926710145</v>
+        <v>1.029168926710034</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0002092992335096538</v>
+        <v>0.0002092992335080694</v>
       </c>
       <c r="D51" t="n">
         <v>49</v>
@@ -5472,13 +5472,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.01443298593671</v>
+        <v>1.014432985936655</v>
       </c>
       <c r="B52" t="n">
-        <v>1.029156106826396</v>
+        <v>1.029156106826285</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0002089805976182459</v>
+        <v>0.0002089805976166664</v>
       </c>
       <c r="D52" t="n">
         <v>50</v>
@@ -5486,13 +5486,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.0144414515739</v>
+        <v>1.014441451573845</v>
       </c>
       <c r="B53" t="n">
-        <v>1.029124155839575</v>
+        <v>1.029124155839464</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0002086624340422073</v>
+        <v>0.0002086624340406331</v>
       </c>
       <c r="D53" t="n">
         <v>51</v>
